--- a/reindexed-charts.xlsx
+++ b/reindexed-charts.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Month</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Indexed Charts</t>
   </si>
@@ -46,7 +43,7 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>values re-indexed (100 = 2001)</t>
+    <t>values re-indexed 2001 = 100)</t>
   </si>
 </sst>
 </file>
@@ -1614,11 +1611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122181752"/>
-        <c:axId val="-2122178264"/>
+        <c:axId val="-2048673560"/>
+        <c:axId val="-2048210600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122181752"/>
+        <c:axId val="-2048673560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1650,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122178264"/>
+        <c:crossAx val="-2048210600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1659,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122178264"/>
+        <c:axId val="-2048210600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1705,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122181752"/>
+        <c:crossAx val="-2048673560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2487,7 +2484,7 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="I3" sqref="I3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2507,14 +2504,14 @@
   <sheetData>
     <row r="1" spans="2:12" ht="22.5" customHeight="1">
       <c r="B1" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="H1" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
@@ -2528,7 +2525,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="I3" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -2536,22 +2533,22 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>tblCPs[[#Headers],[Germany]]</f>
